--- a/Masters_Winners.xlsx
+++ b/Masters_Winners.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasgwartz/Desktop/The Masters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasgwartz/Desktop/Job/Projects/Python/Masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0636218-4336-EA4F-9C07-76579BC788FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EED2AB-6E2D-5D44-9903-460241E6F0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2980" windowWidth="28800" windowHeight="16080" xr2:uid="{0478EA40-DAE6-D342-BA5E-705AD7BF3F71}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{0478EA40-DAE6-D342-BA5E-705AD7BF3F71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="138">
   <si>
     <t>DOB</t>
   </si>
@@ -441,6 +441,15 @@
   </si>
   <si>
     <t>Winning Scores</t>
+  </si>
+  <si>
+    <t>Jon Rahm</t>
+  </si>
+  <si>
+    <t>11/10/1994</t>
+  </si>
+  <si>
+    <t>276</t>
   </si>
 </sst>
 </file>
@@ -469,12 +478,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -483,6 +486,12 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -508,15 +517,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FEB8AC-D6F0-5441-ADB5-D048F64B0019}">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,10 +863,10 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F1" s="1"/>
@@ -873,10 +881,10 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="2"/>
@@ -891,10 +899,10 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -907,10 +915,10 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="2"/>
@@ -925,10 +933,10 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>2</v>
       </c>
       <c r="F5" s="2"/>
@@ -943,10 +951,10 @@
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>2</v>
       </c>
       <c r="F6" s="2"/>
@@ -961,10 +969,10 @@
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -979,10 +987,10 @@
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>4</v>
       </c>
       <c r="F8" s="2"/>
@@ -997,10 +1005,10 @@
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>3</v>
       </c>
       <c r="F9" s="2"/>
@@ -1015,10 +1023,10 @@
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -1031,10 +1039,10 @@
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11" s="2"/>
@@ -1049,10 +1057,10 @@
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>2</v>
       </c>
       <c r="F12" s="2"/>
@@ -1067,10 +1075,10 @@
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>5</v>
       </c>
       <c r="F13" s="2"/>
@@ -1085,10 +1093,10 @@
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>3</v>
       </c>
       <c r="F14" s="2"/>
@@ -1103,10 +1111,10 @@
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>2</v>
       </c>
       <c r="F15" s="2"/>
@@ -1121,10 +1129,10 @@
       <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>2</v>
       </c>
       <c r="F16" s="2"/>
@@ -1139,10 +1147,10 @@
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>4</v>
       </c>
       <c r="F17" s="2"/>
@@ -1157,10 +1165,10 @@
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>5</v>
       </c>
       <c r="F18" s="2"/>
@@ -1175,10 +1183,10 @@
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -1191,10 +1199,10 @@
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>7</v>
       </c>
       <c r="F20" s="2"/>
@@ -1209,10 +1217,10 @@
       <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>1</v>
       </c>
       <c r="F21" s="2"/>
@@ -1227,10 +1235,10 @@
       <c r="C22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>3</v>
       </c>
       <c r="F22" s="2"/>
@@ -1245,10 +1253,10 @@
       <c r="C23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>1</v>
       </c>
       <c r="F23" s="2"/>
@@ -1263,10 +1271,10 @@
       <c r="C24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>1</v>
       </c>
       <c r="F24" s="2"/>
@@ -1281,10 +1289,10 @@
       <c r="C25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>1</v>
       </c>
       <c r="F25" s="2"/>
@@ -1299,10 +1307,10 @@
       <c r="C26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>1</v>
       </c>
       <c r="F26" s="2"/>
@@ -1317,10 +1325,10 @@
       <c r="C27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -1333,10 +1341,10 @@
       <c r="C28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>1</v>
       </c>
       <c r="F28" s="2"/>
@@ -1351,10 +1359,10 @@
       <c r="C29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>6</v>
       </c>
       <c r="F29" s="2"/>
@@ -1369,10 +1377,10 @@
       <c r="C30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>9</v>
       </c>
       <c r="F30" s="2"/>
@@ -1387,10 +1395,10 @@
       <c r="C31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="6"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -1403,10 +1411,10 @@
       <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>1</v>
       </c>
       <c r="F32" s="2"/>
@@ -1421,10 +1429,10 @@
       <c r="C33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>1</v>
       </c>
       <c r="F33" s="2"/>
@@ -1439,10 +1447,10 @@
       <c r="C34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>1</v>
       </c>
       <c r="F34" s="2"/>
@@ -1457,10 +1465,10 @@
       <c r="C35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -1473,10 +1481,10 @@
       <c r="C36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>2</v>
       </c>
       <c r="F36" s="2"/>
@@ -1491,10 +1499,10 @@
       <c r="C37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>3</v>
       </c>
       <c r="F37" s="2"/>
@@ -1509,10 +1517,10 @@
       <c r="C38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>1</v>
       </c>
       <c r="F38" s="2"/>
@@ -1527,10 +1535,10 @@
       <c r="C39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>2</v>
       </c>
       <c r="F39" s="2"/>
@@ -1545,10 +1553,10 @@
       <c r="C40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>1</v>
       </c>
       <c r="F40" s="2"/>
@@ -1563,10 +1571,10 @@
       <c r="C41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>8</v>
       </c>
       <c r="F41" s="2"/>
@@ -1581,10 +1589,10 @@
       <c r="C42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>2</v>
       </c>
       <c r="F42" s="2"/>
@@ -1599,10 +1607,10 @@
       <c r="C43" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>1</v>
       </c>
       <c r="F43" s="2"/>
@@ -1617,10 +1625,10 @@
       <c r="C44" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="6"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -1633,10 +1641,10 @@
       <c r="C45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>4</v>
       </c>
       <c r="F45" s="2"/>
@@ -1651,10 +1659,10 @@
       <c r="C46" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>2</v>
       </c>
       <c r="F46" s="2"/>
@@ -1669,10 +1677,10 @@
       <c r="C47" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E47" s="6"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -1685,10 +1693,10 @@
       <c r="C48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>4</v>
       </c>
       <c r="F48" s="2"/>
@@ -1703,10 +1711,10 @@
       <c r="C49" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>2</v>
       </c>
       <c r="F49" s="2"/>
@@ -1721,10 +1729,10 @@
       <c r="C50" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>2</v>
       </c>
       <c r="F50" s="2"/>
@@ -1739,10 +1747,10 @@
       <c r="C51" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>1</v>
       </c>
       <c r="F51" s="2"/>
@@ -1757,10 +1765,10 @@
       <c r="C52" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E52" s="6"/>
+      <c r="E52" s="5"/>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -1773,10 +1781,10 @@
       <c r="C53" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>1</v>
       </c>
       <c r="F53" s="2"/>
@@ -1791,10 +1799,10 @@
       <c r="C54" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E54" s="6"/>
+      <c r="E54" s="5"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -1807,10 +1815,10 @@
       <c r="C55" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E55" s="6"/>
+      <c r="E55" s="5"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -1823,10 +1831,10 @@
       <c r="C56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>1</v>
       </c>
       <c r="F56" s="2"/>
@@ -1841,10 +1849,10 @@
       <c r="C57" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>2</v>
       </c>
       <c r="F57" s="2"/>
@@ -1859,10 +1867,10 @@
       <c r="C58" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>4</v>
       </c>
       <c r="F58" s="2"/>
@@ -1877,10 +1885,10 @@
       <c r="C59" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>2</v>
       </c>
       <c r="F59" s="2"/>
@@ -1895,10 +1903,10 @@
       <c r="C60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>1</v>
       </c>
       <c r="F60" s="2"/>
@@ -1913,10 +1921,10 @@
       <c r="C61" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>5</v>
       </c>
       <c r="F61" s="2"/>
@@ -1931,10 +1939,10 @@
       <c r="C62" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <v>12</v>
       </c>
       <c r="F62" s="2"/>
@@ -1949,10 +1957,10 @@
       <c r="C63" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <v>1</v>
       </c>
       <c r="F63" s="2"/>
@@ -1967,10 +1975,10 @@
       <c r="C64" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <v>2</v>
       </c>
       <c r="F64" s="2"/>
@@ -1985,10 +1993,10 @@
       <c r="C65" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>3</v>
       </c>
       <c r="F65" s="2"/>
@@ -2003,10 +2011,10 @@
       <c r="C66" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <v>2</v>
       </c>
       <c r="F66" s="2"/>
@@ -2021,10 +2029,10 @@
       <c r="C67" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="5">
         <v>3</v>
       </c>
       <c r="F67" s="2"/>
@@ -2039,10 +2047,10 @@
       <c r="C68" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E68" s="6"/>
+      <c r="E68" s="5"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -2055,10 +2063,10 @@
       <c r="C69" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="5">
         <v>1</v>
       </c>
       <c r="F69" s="2"/>
@@ -2073,10 +2081,10 @@
       <c r="C70" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E70" s="6"/>
+      <c r="E70" s="5"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -2089,10 +2097,10 @@
       <c r="C71" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="5">
         <v>2</v>
       </c>
       <c r="F71" s="2"/>
@@ -2107,10 +2115,10 @@
       <c r="C72" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="5">
         <v>2</v>
       </c>
       <c r="F72" s="2"/>
@@ -2125,10 +2133,10 @@
       <c r="C73" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="5">
         <v>3</v>
       </c>
       <c r="F73" s="2"/>
@@ -2143,10 +2151,10 @@
       <c r="C74" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E74" s="6"/>
+      <c r="E74" s="5"/>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -2159,10 +2167,10 @@
       <c r="C75" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="5">
         <v>3</v>
       </c>
       <c r="F75" s="2"/>
@@ -2177,10 +2185,10 @@
       <c r="C76" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="5">
         <v>2</v>
       </c>
       <c r="F76" s="2"/>
@@ -2195,10 +2203,10 @@
       <c r="C77" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E77" s="6"/>
+      <c r="E77" s="5"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -2211,10 +2219,10 @@
       <c r="C78" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E78" s="6"/>
+      <c r="E78" s="5"/>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -2227,10 +2235,10 @@
       <c r="C79" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="5">
         <v>3</v>
       </c>
       <c r="F79" s="2"/>
@@ -2245,10 +2253,10 @@
       <c r="C80" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="5">
         <v>4</v>
       </c>
       <c r="F80" s="2"/>
@@ -2263,10 +2271,10 @@
       <c r="C81" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="5">
         <v>3</v>
       </c>
       <c r="F81" s="2"/>
@@ -2281,10 +2289,10 @@
       <c r="C82" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E82" s="6"/>
+      <c r="E82" s="5"/>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" ht="20" x14ac:dyDescent="0.2">
@@ -2297,10 +2305,10 @@
       <c r="C83" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="5">
         <v>1</v>
       </c>
       <c r="F83" s="2"/>
@@ -2315,10 +2323,10 @@
       <c r="C84" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="5">
         <v>1</v>
       </c>
       <c r="F84" s="2"/>
@@ -2333,10 +2341,10 @@
       <c r="C85" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="5">
         <v>5</v>
       </c>
       <c r="F85" s="2"/>
@@ -2351,10 +2359,10 @@
       <c r="C86" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="5">
         <v>1</v>
       </c>
       <c r="F86" s="2"/>
@@ -2369,18 +2377,33 @@
       <c r="C87" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="6">
         <v>3</v>
       </c>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="3"/>
+    <row r="88" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E88" s="5">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Masters_Winners.xlsx
+++ b/Masters_Winners.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasgwartz/Desktop/Job/Projects/Python/Masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EED2AB-6E2D-5D44-9903-460241E6F0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F133D4F3-F9DB-704D-BC7F-1223714A8B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{0478EA40-DAE6-D342-BA5E-705AD7BF3F71}"/>
   </bookViews>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FEB8AC-D6F0-5441-ADB5-D048F64B0019}">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="88" spans="1:6" ht="20" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>135</v>

--- a/Masters_Winners.xlsx
+++ b/Masters_Winners.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasgwartz/Desktop/Job/Projects/Python/Masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F133D4F3-F9DB-704D-BC7F-1223714A8B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF2100D-E15A-1342-ACCE-CA3C8E27F5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{0478EA40-DAE6-D342-BA5E-705AD7BF3F71}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{0478EA40-DAE6-D342-BA5E-705AD7BF3F71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="139">
   <si>
     <t>DOB</t>
   </si>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>276</t>
+  </si>
+  <si>
+    <t>277</t>
   </si>
 </sst>
 </file>
@@ -543,9 +546,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -583,7 +586,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -689,7 +692,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -831,7 +834,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -839,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FEB8AC-D6F0-5441-ADB5-D048F64B0019}">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2402,6 +2405,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="89" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E89" s="5">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Masters_Winners.xlsx
+++ b/Masters_Winners.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasgwartz/Desktop/Job/Projects/Python/Masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF2100D-E15A-1342-ACCE-CA3C8E27F5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B611602-2D88-EC4F-B308-63A91B56D6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{0478EA40-DAE6-D342-BA5E-705AD7BF3F71}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15900" xr2:uid="{0478EA40-DAE6-D342-BA5E-705AD7BF3F71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="141">
   <si>
     <t>DOB</t>
   </si>
@@ -453,6 +453,12 @@
   </si>
   <si>
     <t>277</t>
+  </si>
+  <si>
+    <t>Rory McIlroy</t>
+  </si>
+  <si>
+    <t>05/04/1989</t>
   </si>
 </sst>
 </file>
@@ -842,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FEB8AC-D6F0-5441-ADB5-D048F64B0019}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2422,6 +2428,21 @@
         <v>4</v>
       </c>
     </row>
+    <row r="90" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E90" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
